--- a/uploads/bva_update.xlsx
+++ b/uploads/bva_update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NKarisa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024F6ED1-74BF-4406-9D20-3A17B83DD999}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D9C917E3-8EE2-46A1-9CD9-A258127AA703}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{D31C0714-CF94-4600-8E67-2D6B58F73890}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,22 +441,22 @@
         <v>284646</v>
       </c>
       <c r="B2" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C2">
-        <v>48500</v>
+        <v>36000</v>
       </c>
       <c r="D2">
-        <v>78020</v>
+        <v>65520</v>
       </c>
       <c r="E2">
-        <v>59300</v>
+        <v>46800</v>
       </c>
       <c r="F2">
-        <v>458900</v>
+        <v>446400</v>
       </c>
       <c r="G2">
-        <v>905300</v>
+        <v>892800</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -464,22 +464,22 @@
         <v>284647</v>
       </c>
       <c r="B3" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C3">
-        <v>59510</v>
+        <v>47010</v>
       </c>
       <c r="D3">
-        <v>98058.2</v>
+        <v>85558.2</v>
       </c>
       <c r="E3">
-        <v>73613</v>
+        <v>61113</v>
       </c>
       <c r="F3">
-        <v>595424</v>
+        <v>582924</v>
       </c>
       <c r="G3">
-        <v>1178348</v>
+        <v>1165848</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -487,22 +487,22 @@
         <v>284648</v>
       </c>
       <c r="B4" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C4">
-        <v>42110</v>
+        <v>29610</v>
       </c>
       <c r="D4">
-        <v>66390.2</v>
+        <v>53890.2</v>
       </c>
       <c r="E4">
-        <v>50993</v>
+        <v>38493</v>
       </c>
       <c r="F4">
-        <v>379664</v>
+        <v>367164</v>
       </c>
       <c r="G4">
-        <v>746828</v>
+        <v>734328</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -510,22 +510,22 @@
         <v>290290</v>
       </c>
       <c r="B5" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C5">
-        <v>56000</v>
+        <v>43500</v>
       </c>
       <c r="D5">
-        <v>91670</v>
+        <v>79170</v>
       </c>
       <c r="E5">
-        <v>269050</v>
+        <v>256550</v>
       </c>
       <c r="F5">
-        <v>551900</v>
+        <v>539400</v>
       </c>
       <c r="G5">
-        <v>1091300</v>
+        <v>1078800</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -533,22 +533,22 @@
         <v>290291</v>
       </c>
       <c r="B6" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C6">
-        <v>116030</v>
+        <v>103530</v>
       </c>
       <c r="D6">
-        <v>200924.59</v>
+        <v>188424.59</v>
       </c>
       <c r="E6">
-        <v>147089</v>
+        <v>134589</v>
       </c>
       <c r="F6">
-        <v>1296272</v>
+        <v>1283772</v>
       </c>
       <c r="G6">
-        <v>2580044</v>
+        <v>2567544</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -556,22 +556,22 @@
         <v>369630</v>
       </c>
       <c r="B7" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C7">
-        <v>69335</v>
+        <v>56835</v>
       </c>
       <c r="D7">
-        <v>115939.7</v>
+        <v>103439.7</v>
       </c>
       <c r="E7">
-        <v>86385.5</v>
+        <v>73885.5</v>
       </c>
       <c r="F7">
-        <v>717254</v>
+        <v>704754</v>
       </c>
       <c r="G7">
-        <v>1422008</v>
+        <v>1409508</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -579,22 +579,22 @@
         <v>456456</v>
       </c>
       <c r="B8" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C8">
-        <v>82730</v>
+        <v>70230</v>
       </c>
       <c r="D8">
-        <v>140318.6</v>
+        <v>127818.6</v>
       </c>
       <c r="E8">
-        <v>103799</v>
+        <v>91299</v>
       </c>
       <c r="F8">
-        <v>883352</v>
+        <v>870852</v>
       </c>
       <c r="G8">
-        <v>1754204</v>
+        <v>1741704</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -602,22 +602,22 @@
         <v>345219</v>
       </c>
       <c r="B9" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C9">
-        <v>3627179</v>
+        <v>3614679</v>
       </c>
       <c r="D9">
-        <v>6591216</v>
+        <v>6578716</v>
       </c>
       <c r="E9">
-        <v>4711582.5</v>
+        <v>4699082.5</v>
       </c>
       <c r="F9">
-        <v>44834520</v>
+        <v>44822020</v>
       </c>
       <c r="G9">
-        <v>89656540</v>
+        <v>89644040</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -625,22 +625,22 @@
         <v>32746</v>
       </c>
       <c r="B10" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C10">
-        <v>308786</v>
+        <v>296286</v>
       </c>
       <c r="D10">
-        <v>551740.5</v>
+        <v>539240.5</v>
       </c>
       <c r="E10">
-        <v>397671.81</v>
+        <v>385171.81</v>
       </c>
       <c r="F10">
-        <v>3686446.5</v>
+        <v>3673946.5</v>
       </c>
       <c r="G10">
-        <v>7360393</v>
+        <v>7347893</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -648,22 +648,22 @@
         <v>456432</v>
       </c>
       <c r="B11" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C11">
-        <v>2684600</v>
+        <v>2672100</v>
       </c>
       <c r="D11">
-        <v>4875722</v>
+        <v>4863222</v>
       </c>
       <c r="E11">
-        <v>3486230</v>
+        <v>3473730</v>
       </c>
       <c r="F11">
-        <v>33146540</v>
+        <v>33134040</v>
       </c>
       <c r="G11">
-        <v>66280580</v>
+        <v>66268080</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -671,22 +671,22 @@
         <v>345631</v>
       </c>
       <c r="B12" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C12">
-        <v>3116063</v>
+        <v>3103563</v>
       </c>
       <c r="D12">
-        <v>5660984.5</v>
+        <v>5648484.5</v>
       </c>
       <c r="E12">
-        <v>4047132</v>
+        <v>4034632</v>
       </c>
       <c r="F12">
-        <v>38496680</v>
+        <v>38484180</v>
       </c>
       <c r="G12">
-        <v>76980860</v>
+        <v>76968360</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -694,22 +694,22 @@
         <v>324345</v>
       </c>
       <c r="B13" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C13">
-        <v>4614728.5</v>
+        <v>4602228.5</v>
       </c>
       <c r="D13">
-        <v>8388556</v>
+        <v>8376056</v>
       </c>
       <c r="E13">
-        <v>5995397</v>
+        <v>5982897</v>
       </c>
       <c r="F13">
-        <v>57080136</v>
+        <v>57067636</v>
       </c>
       <c r="G13">
-        <v>100012500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -717,22 +717,22 @@
         <v>654322</v>
       </c>
       <c r="B14" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C14">
-        <v>2815334</v>
+        <v>2802834</v>
       </c>
       <c r="D14">
-        <v>5113658</v>
+        <v>5101158</v>
       </c>
       <c r="E14">
-        <v>3656184.25</v>
+        <v>3643684.25</v>
       </c>
       <c r="F14">
-        <v>34767640</v>
+        <v>34755140</v>
       </c>
       <c r="G14">
-        <v>69522780</v>
+        <v>69510280</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -740,22 +740,22 @@
         <v>343211</v>
       </c>
       <c r="B15" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C15">
-        <v>52040956</v>
+        <v>52028456</v>
       </c>
       <c r="D15">
-        <v>94704292</v>
+        <v>94691792</v>
       </c>
       <c r="E15">
-        <v>67649492</v>
+        <v>67636992</v>
       </c>
       <c r="F15">
-        <v>100012500</v>
+        <v>100000000</v>
       </c>
       <c r="G15">
-        <v>100012500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -763,22 +763,22 @@
         <v>533456</v>
       </c>
       <c r="B16" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C16">
-        <v>6407678</v>
+        <v>6395178</v>
       </c>
       <c r="D16">
-        <v>11651724</v>
+        <v>11639224</v>
       </c>
       <c r="E16">
-        <v>8326231.5</v>
+        <v>8313731.5</v>
       </c>
       <c r="F16">
-        <v>79312708</v>
+        <v>79300208</v>
       </c>
       <c r="G16">
-        <v>100012500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -786,22 +786,22 @@
         <v>534522</v>
       </c>
       <c r="B17" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C17">
-        <v>2683018.75</v>
+        <v>2670518.75</v>
       </c>
       <c r="D17">
-        <v>4872844</v>
+        <v>4860344</v>
       </c>
       <c r="E17">
-        <v>3484174.25</v>
+        <v>3471674.25</v>
       </c>
       <c r="F17">
-        <v>33126932</v>
+        <v>33114432</v>
       </c>
       <c r="G17">
-        <v>66241364</v>
+        <v>66228864</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -809,22 +809,22 @@
         <v>553456</v>
       </c>
       <c r="B18" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C18">
-        <v>19629538</v>
+        <v>19617038</v>
       </c>
       <c r="D18">
-        <v>35715508</v>
+        <v>35703008</v>
       </c>
       <c r="E18">
-        <v>25514650</v>
+        <v>25502150</v>
       </c>
       <c r="F18">
-        <v>100012500</v>
+        <v>100000000</v>
       </c>
       <c r="G18">
-        <v>100012500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -832,22 +832,22 @@
         <v>423456</v>
       </c>
       <c r="B19" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="C19">
-        <v>1974343.12</v>
+        <v>1961843.12</v>
       </c>
       <c r="D19">
-        <v>3583054.5</v>
+        <v>3570554.5</v>
       </c>
       <c r="E19">
-        <v>2562896</v>
+        <v>2550396</v>
       </c>
       <c r="F19">
-        <v>24339354</v>
+        <v>24326854</v>
       </c>
       <c r="G19">
-        <v>48666208</v>
+        <v>48653708</v>
       </c>
     </row>
   </sheetData>
